--- a/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 17,55</t>
+          <t>-18,56; 22,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 19,08</t>
+          <t>-6,18; 26,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 3,06</t>
+          <t>-6,72; 11,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 82,68</t>
+          <t>-46,77; 135,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 24,96</t>
+          <t>-6,72; 39,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 3,1</t>
+          <t>-6,73; 13,96</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,68</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 38,09</t>
+          <t>-4,47; 40,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 33,41</t>
+          <t>-7,06; 44,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 8,78</t>
+          <t>-2,95; 13,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 127,4</t>
+          <t>-7,67; 144,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 53,7</t>
+          <t>-7,52; 85,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 10,27</t>
+          <t>-2,92; 15,8</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 19,98</t>
+          <t>-17,74; 16,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 11,92</t>
+          <t>-1,08; 16,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 23,19</t>
+          <t>-1,99; 15,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 51,44</t>
+          <t>-26,9; 35,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 13,79</t>
+          <t>-1,11; 20,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 31,43</t>
+          <t>-1,99; 19,24</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-15,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 10,45</t>
+          <t>-24,42; 5,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 5,58</t>
+          <t>-2,16; 14,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,92</t>
+          <t>-3,81; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 23,8</t>
+          <t>-36,46; 12,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,23</t>
+          <t>-2,33; 18,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 4,1</t>
+          <t>-3,85; 7,61</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 22,52</t>
+          <t>-5,36; 30,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 24,75</t>
+          <t>-0,67; 28,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 23,9</t>
+          <t>3,01; 35,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 97,0</t>
+          <t>-15,5; 165,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 33,8</t>
+          <t>-0,74; 41,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 32,04</t>
+          <t>3,2; 54,85</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,31</t>
+          <t>-28,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,34%</t>
+          <t>-62,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>-1,69%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 0,72</t>
+          <t>-49,0; -9,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 6,09</t>
+          <t>-13,55; 3,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 11,57</t>
+          <t>-9,04; 6,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 4,92</t>
+          <t>-87,96; -21,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 6,87</t>
+          <t>-13,96; 3,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 13,39</t>
+          <t>-9,13; 6,84</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 10,35</t>
+          <t>-7,03; 9,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,78</t>
+          <t>1,19; 15,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,32</t>
+          <t>0,49; 9,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 27,41</t>
+          <t>-14,13; 23,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,66</t>
+          <t>1,24; 19,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,2</t>
+          <t>0,54; 10,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,37%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.812819941417033</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.1028040255367</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3353115024931963</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.09696505737476901</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1534993439817672</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.003451467355328611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,56; 22,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 26,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 11,97</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-46,77; 135,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 39,03</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 13,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.55797169904766</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.403967565957077</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.027737555709487</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4677342552139553</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.05635771112429953</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.05059402052170118</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.32267862904634</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.08895452396379</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.50173935652999</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.359654022558351</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4513731033773994</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1079110765443761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,73</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>36,39%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 40,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 44,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 13,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 144,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 85,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 15,8</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.67065404246139</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.983711971480378</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.23509005424375</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3638859215732297</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1088752908716994</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.03425259099232705</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.466942958720245</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.574159124121637</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.513462348923078</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.0766690307457234</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.06879536900513944</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.04473353480787046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,74; 16,26</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 16,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 15,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,9; 35,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 20,47</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 19,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>40.8410088535649</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>43.85032611828043</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.83001215532919</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.445373793996141</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8458441556928762</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1363629368518167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-15,43%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.122320977523183</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.960667021234998</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.292007528739352</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.01996954399792078</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.04199778076081882</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.06970756796934334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-24,42; 5,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 14,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 6,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,46; 12,06</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 18,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 7,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.73707057454651</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.234603799304821</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.578128108468489</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2689906697998199</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.0123258051964872</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.0165673412962847</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.26257066414094</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.99774921608203</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.91500663400416</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3537199127266441</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1637709947761323</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2213422779487944</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>41,88%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 30,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 28,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 35,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 165,7</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 41,81</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 54,85</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-9.087600978030702</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.740161551840782</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.245186525296615</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1542897134114554</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.05381907405245302</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01303984869701314</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-28,13</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-62,28%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,28%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-1,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-24.41816500740648</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.340680252504791</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.237120099720204</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3645837127705404</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.04216683852318151</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04302442362338208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-49,0; -9,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 3,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 6,3</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-87,96; -21,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; 3,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 6,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.955230890886727</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.5536895142499</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.856926467422948</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1206070298323315</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1935769624729261</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.08775629868105811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>11.48266827925314</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10.52189387568301</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>13.16931365060758</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.4188085185915745</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1228083203732086</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1560447066177639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 9,33</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 15,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 9,25</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 23,68</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 19,2</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 10,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.359750081788215</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3476918729082133</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.28254145168061</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1549682263443397</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.002865466130454475</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.02462314139975613</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>30.59495499200616</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>31.58007452477575</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>35.30112453613562</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.657011646343852</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.4815550864710839</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.5670088225764303</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-28.13483318295393</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-4.215664437352085</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-1.351125472530201</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.6227510515887134</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.04316332551447492</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.01388809284066613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-48.99679094865272</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-13.87009157169263</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-8.426067844557865</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.8795786059533841</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1565183169549088</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.08461732166025196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-9.184898516742965</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.707239148542478</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>6.41972973511395</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.2118630271631568</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.02647031465677276</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.06926837731846726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.8267832912738471</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.374539282669756</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.064702157186185</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.01830339603498417</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.07255838777504682</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.04376611699096647</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.031471875183184</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.07204043932512</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3979693489168414</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1412732518546121</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.01167804948937188</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.004227386834075016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.334942686109258</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.35709355345084</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.254075584230776</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2367629071330554</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1804976227758733</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1035544870682057</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1184,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
